--- a/artfynd/A 51524-2020.xlsx
+++ b/artfynd/A 51524-2020.xlsx
@@ -904,10 +904,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>90732140</v>
+        <v>90732129</v>
       </c>
       <c r="B4" t="n">
-        <v>77665</v>
+        <v>90653</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -916,25 +916,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>229569</v>
+        <v>4364</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Varglavsknöl</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Phacopsis vulpina</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Tul.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -944,10 +944,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>417618.1115607285</v>
+        <v>417608.0352792412</v>
       </c>
       <c r="R4" t="n">
-        <v>6845348.121476179</v>
+        <v>6845700.123871163</v>
       </c>
       <c r="S4" t="n">
         <v>5</v>
@@ -1016,10 +1016,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>90732143</v>
+        <v>90732131</v>
       </c>
       <c r="B5" t="n">
-        <v>78072</v>
+        <v>89967</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1028,25 +1028,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>229821</v>
+        <v>1179</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Vedflamlav</t>
+          <t>Gräddticka</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Ramboldia elabens</t>
+          <t>Perenniporia subacida</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Fr.) Kantvilas &amp; Elix</t>
+          <t>(Peck) Donk</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1056,10 +1056,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>417594.2082390039</v>
+        <v>417605.858702165</v>
       </c>
       <c r="R5" t="n">
-        <v>6845380.932983713</v>
+        <v>6845728.144729294</v>
       </c>
       <c r="S5" t="n">
         <v>5</v>
@@ -1128,10 +1128,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>90732144</v>
+        <v>90732132</v>
       </c>
       <c r="B6" t="n">
-        <v>78098</v>
+        <v>76968</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1144,21 +1144,21 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>6453</v>
+        <v>1561</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Urnlav</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Tholurna dissimilis</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Norman) Norman</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1168,10 +1168,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>417599.8566462689</v>
+        <v>417605.858702165</v>
       </c>
       <c r="R6" t="n">
-        <v>6845458.07348048</v>
+        <v>6845728.144729294</v>
       </c>
       <c r="S6" t="n">
         <v>5</v>
@@ -1240,10 +1240,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>90732129</v>
+        <v>90732140</v>
       </c>
       <c r="B7" t="n">
-        <v>90653</v>
+        <v>77665</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1252,25 +1252,25 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>4364</v>
+        <v>229569</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Varglavsknöl</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Phacopsis vulpina</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>Tul.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1280,10 +1280,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>417608.0352792412</v>
+        <v>417618.1115607285</v>
       </c>
       <c r="R7" t="n">
-        <v>6845700.123871163</v>
+        <v>6845348.121476179</v>
       </c>
       <c r="S7" t="n">
         <v>5</v>
@@ -1352,10 +1352,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>90732131</v>
+        <v>90732143</v>
       </c>
       <c r="B8" t="n">
-        <v>89967</v>
+        <v>78072</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1364,25 +1364,25 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>1179</v>
+        <v>229821</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Gräddticka</t>
+          <t>Vedflamlav</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Perenniporia subacida</t>
+          <t>Ramboldia elabens</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Peck) Donk</t>
+          <t>(Fr.) Kantvilas &amp; Elix</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1392,10 +1392,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>417605.858702165</v>
+        <v>417594.2082390039</v>
       </c>
       <c r="R8" t="n">
-        <v>6845728.144729294</v>
+        <v>6845380.932983713</v>
       </c>
       <c r="S8" t="n">
         <v>5</v>
@@ -1464,10 +1464,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>90732133</v>
+        <v>90732144</v>
       </c>
       <c r="B9" t="n">
-        <v>77506</v>
+        <v>78098</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1480,21 +1480,21 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>6425</v>
+        <v>6453</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1504,10 +1504,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>417643.992292641</v>
+        <v>417599.8566462689</v>
       </c>
       <c r="R9" t="n">
-        <v>6845496.837820866</v>
+        <v>6845458.07348048</v>
       </c>
       <c r="S9" t="n">
         <v>5</v>
@@ -1576,10 +1576,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>90732139</v>
+        <v>90732133</v>
       </c>
       <c r="B10" t="n">
-        <v>77605</v>
+        <v>77506</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1592,21 +1592,21 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>967</v>
+        <v>6425</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Varglav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Letharia vulpina</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(L.) Hue</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1616,10 +1616,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>417618.0320403676</v>
+        <v>417643.992292641</v>
       </c>
       <c r="R10" t="n">
-        <v>6845344.804714192</v>
+        <v>6845496.837820866</v>
       </c>
       <c r="S10" t="n">
         <v>5</v>
@@ -1688,10 +1688,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>90732135</v>
+        <v>90732139</v>
       </c>
       <c r="B11" t="n">
-        <v>78072</v>
+        <v>77605</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1704,21 +1704,21 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>229821</v>
+        <v>967</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Vedflamlav</t>
+          <t>Varglav</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Ramboldia elabens</t>
+          <t>Letharia vulpina</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Fr.) Kantvilas &amp; Elix</t>
+          <t>(L.) Hue</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1728,10 +1728,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>417676.8635081355</v>
+        <v>417618.0320403676</v>
       </c>
       <c r="R11" t="n">
-        <v>6845442.005167184</v>
+        <v>6845344.804714192</v>
       </c>
       <c r="S11" t="n">
         <v>5</v>
@@ -1800,7 +1800,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>90732137</v>
+        <v>90732135</v>
       </c>
       <c r="B12" t="n">
         <v>78072</v>
@@ -1840,10 +1840,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>417685.2215215203</v>
+        <v>417676.8635081355</v>
       </c>
       <c r="R12" t="n">
-        <v>6845315.222739331</v>
+        <v>6845442.005167184</v>
       </c>
       <c r="S12" t="n">
         <v>5</v>
@@ -1912,10 +1912,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>90732132</v>
+        <v>90732137</v>
       </c>
       <c r="B13" t="n">
-        <v>76968</v>
+        <v>78072</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1928,21 +1928,21 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>1561</v>
+        <v>229821</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Urnlav</t>
+          <t>Vedflamlav</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Tholurna dissimilis</t>
+          <t>Ramboldia elabens</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Norman) Norman</t>
+          <t>(Fr.) Kantvilas &amp; Elix</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -1952,10 +1952,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>417605.858702165</v>
+        <v>417685.2215215203</v>
       </c>
       <c r="R13" t="n">
-        <v>6845728.144729294</v>
+        <v>6845315.222739331</v>
       </c>
       <c r="S13" t="n">
         <v>5</v>

--- a/artfynd/A 51524-2020.xlsx
+++ b/artfynd/A 51524-2020.xlsx
@@ -904,10 +904,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>90732129</v>
+        <v>90732140</v>
       </c>
       <c r="B4" t="n">
-        <v>90653</v>
+        <v>77665</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -916,25 +916,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>4364</v>
+        <v>229569</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Varglavsknöl</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Phacopsis vulpina</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>Tul.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -944,10 +944,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>417608.0352792412</v>
+        <v>417618.1115607285</v>
       </c>
       <c r="R4" t="n">
-        <v>6845700.123871163</v>
+        <v>6845348.121476179</v>
       </c>
       <c r="S4" t="n">
         <v>5</v>
@@ -1016,10 +1016,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>90732131</v>
+        <v>90732143</v>
       </c>
       <c r="B5" t="n">
-        <v>89967</v>
+        <v>78072</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1028,25 +1028,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>1179</v>
+        <v>229821</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Gräddticka</t>
+          <t>Vedflamlav</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Perenniporia subacida</t>
+          <t>Ramboldia elabens</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Peck) Donk</t>
+          <t>(Fr.) Kantvilas &amp; Elix</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1056,10 +1056,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>417605.858702165</v>
+        <v>417594.2082390039</v>
       </c>
       <c r="R5" t="n">
-        <v>6845728.144729294</v>
+        <v>6845380.932983713</v>
       </c>
       <c r="S5" t="n">
         <v>5</v>
@@ -1128,10 +1128,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>90732132</v>
+        <v>90732144</v>
       </c>
       <c r="B6" t="n">
-        <v>76968</v>
+        <v>78098</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1144,21 +1144,21 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>1561</v>
+        <v>6453</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Urnlav</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Tholurna dissimilis</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Norman) Norman</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1168,10 +1168,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>417605.858702165</v>
+        <v>417599.8566462689</v>
       </c>
       <c r="R6" t="n">
-        <v>6845728.144729294</v>
+        <v>6845458.07348048</v>
       </c>
       <c r="S6" t="n">
         <v>5</v>
@@ -1240,10 +1240,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>90732140</v>
+        <v>90732129</v>
       </c>
       <c r="B7" t="n">
-        <v>77665</v>
+        <v>90653</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1252,25 +1252,25 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>229569</v>
+        <v>4364</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Varglavsknöl</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Phacopsis vulpina</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Tul.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1280,10 +1280,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>417618.1115607285</v>
+        <v>417608.0352792412</v>
       </c>
       <c r="R7" t="n">
-        <v>6845348.121476179</v>
+        <v>6845700.123871163</v>
       </c>
       <c r="S7" t="n">
         <v>5</v>
@@ -1352,10 +1352,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>90732143</v>
+        <v>90732131</v>
       </c>
       <c r="B8" t="n">
-        <v>78072</v>
+        <v>89967</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1364,25 +1364,25 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>229821</v>
+        <v>1179</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Vedflamlav</t>
+          <t>Gräddticka</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Ramboldia elabens</t>
+          <t>Perenniporia subacida</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Fr.) Kantvilas &amp; Elix</t>
+          <t>(Peck) Donk</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1392,10 +1392,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>417594.2082390039</v>
+        <v>417605.858702165</v>
       </c>
       <c r="R8" t="n">
-        <v>6845380.932983713</v>
+        <v>6845728.144729294</v>
       </c>
       <c r="S8" t="n">
         <v>5</v>
@@ -1464,10 +1464,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>90732144</v>
+        <v>90732133</v>
       </c>
       <c r="B9" t="n">
-        <v>78098</v>
+        <v>77506</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1480,21 +1480,21 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>6453</v>
+        <v>6425</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1504,10 +1504,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>417599.8566462689</v>
+        <v>417643.992292641</v>
       </c>
       <c r="R9" t="n">
-        <v>6845458.07348048</v>
+        <v>6845496.837820866</v>
       </c>
       <c r="S9" t="n">
         <v>5</v>
@@ -1576,10 +1576,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>90732133</v>
+        <v>90732139</v>
       </c>
       <c r="B10" t="n">
-        <v>77506</v>
+        <v>77605</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1592,21 +1592,21 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>6425</v>
+        <v>967</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Varglav</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Letharia vulpina</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hue</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1616,10 +1616,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>417643.992292641</v>
+        <v>417618.0320403676</v>
       </c>
       <c r="R10" t="n">
-        <v>6845496.837820866</v>
+        <v>6845344.804714192</v>
       </c>
       <c r="S10" t="n">
         <v>5</v>
@@ -1688,10 +1688,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>90732139</v>
+        <v>90732135</v>
       </c>
       <c r="B11" t="n">
-        <v>77605</v>
+        <v>78072</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1704,21 +1704,21 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>967</v>
+        <v>229821</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Varglav</t>
+          <t>Vedflamlav</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Letharia vulpina</t>
+          <t>Ramboldia elabens</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(L.) Hue</t>
+          <t>(Fr.) Kantvilas &amp; Elix</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1728,10 +1728,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>417618.0320403676</v>
+        <v>417676.8635081355</v>
       </c>
       <c r="R11" t="n">
-        <v>6845344.804714192</v>
+        <v>6845442.005167184</v>
       </c>
       <c r="S11" t="n">
         <v>5</v>
@@ -1800,7 +1800,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>90732135</v>
+        <v>90732137</v>
       </c>
       <c r="B12" t="n">
         <v>78072</v>
@@ -1840,10 +1840,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>417676.8635081355</v>
+        <v>417685.2215215203</v>
       </c>
       <c r="R12" t="n">
-        <v>6845442.005167184</v>
+        <v>6845315.222739331</v>
       </c>
       <c r="S12" t="n">
         <v>5</v>
@@ -1912,10 +1912,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>90732137</v>
+        <v>90732132</v>
       </c>
       <c r="B13" t="n">
-        <v>78072</v>
+        <v>76968</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1928,21 +1928,21 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>229821</v>
+        <v>1561</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Vedflamlav</t>
+          <t>Urnlav</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Ramboldia elabens</t>
+          <t>Tholurna dissimilis</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Fr.) Kantvilas &amp; Elix</t>
+          <t>(Norman) Norman</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -1952,10 +1952,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>417685.2215215203</v>
+        <v>417605.858702165</v>
       </c>
       <c r="R13" t="n">
-        <v>6845315.222739331</v>
+        <v>6845728.144729294</v>
       </c>
       <c r="S13" t="n">
         <v>5</v>
